--- a/concerndata.xlsx
+++ b/concerndata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A175608-4B6A-47FE-866A-6E719BCE3A62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C01BFD8E-AC14-4A94-BCB5-31D41FD145D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>#Exp</t>
   </si>
@@ -113,6 +113,51 @@
   </si>
   <si>
     <t>Facial Recognition</t>
+  </si>
+  <si>
+    <t>GraphViz</t>
+  </si>
+  <si>
+    <t>FacialRecognition</t>
+  </si>
+  <si>
+    <t>Acces Card</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>ConditionalSync</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Conditional Exec</t>
+  </si>
+  <si>
+    <t>Controlflow</t>
+  </si>
+  <si>
+    <t>ParallelExec</t>
+  </si>
+  <si>
+    <t>Conditional Execution</t>
+  </si>
+  <si>
+    <t>Cond Sync</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Conditional Sync</t>
+  </si>
+  <si>
+    <t>ParallelExecution</t>
+  </si>
+  <si>
+    <t>COntrolFlow</t>
   </si>
 </sst>
 </file>
@@ -302,9 +347,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,9 +359,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,13 +372,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,38 +661,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AU240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AH88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="AV104" sqref="AV104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="13"/>
-    <col min="2" max="2" width="8.7265625" style="14"/>
-    <col min="3" max="3" width="17.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="13"/>
-    <col min="5" max="5" width="12.36328125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="13"/>
-    <col min="7" max="7" width="17.453125" style="13" customWidth="1"/>
-    <col min="8" max="16" width="8.7265625" style="13"/>
-    <col min="17" max="17" width="11.7265625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" style="13" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="13" customWidth="1"/>
-    <col min="21" max="29" width="8.7265625" style="13"/>
-    <col min="30" max="30" width="12.26953125" style="13" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" style="13"/>
-    <col min="32" max="32" width="8.7265625" style="14"/>
-    <col min="33" max="33" width="12.08984375" style="13" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="8.7265625" style="8"/>
+    <col min="3" max="3" width="17.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="7"/>
+    <col min="5" max="5" width="12.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="7"/>
+    <col min="7" max="7" width="17.453125" style="7" customWidth="1"/>
+    <col min="8" max="16" width="8.7265625" style="7"/>
+    <col min="17" max="17" width="11.7265625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="7" customWidth="1"/>
+    <col min="21" max="29" width="8.7265625" style="7"/>
+    <col min="30" max="30" width="12.26953125" style="7" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="7"/>
+    <col min="32" max="32" width="8.7265625" style="8"/>
+    <col min="33" max="33" width="12.08984375" style="7" customWidth="1"/>
+    <col min="34" max="42" width="8.7265625" style="7"/>
+    <col min="43" max="43" width="13.08984375" style="7" customWidth="1"/>
+    <col min="44" max="45" width="8.7265625" style="7"/>
+    <col min="46" max="46" width="13.6328125" style="7" customWidth="1"/>
+    <col min="47" max="47" width="8.7265625" style="7"/>
+    <col min="48" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,12 +707,12 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
@@ -693,1281 +743,7157 @@
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
       <c r="AG1" s="11"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="11"/>
+    </row>
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="AH2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="7">
         <v>30.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>14</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <f>D3/E3</f>
         <v>2.1785714285714284</v>
       </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="13"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C4" s="14" t="s">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>15.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>13.1</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="7">
         <f t="shared" ref="F4:F10" si="0">D4/E4</f>
         <v>1.1832061068702291</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>0.75</v>
       </c>
-      <c r="AF4" s="13"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C5" s="14" t="s">
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <v>12.7</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>1.1023622047244095</v>
       </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="13"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C6" s="14" t="s">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>30.2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>8.6</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>3.5116279069767442</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AF6" s="13"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C7" s="14" t="s">
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>23.1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>14.7</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>1.5714285714285716</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AF7" s="13"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C8" s="14" t="s">
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>21.4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>4.1960784313725492</v>
       </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="13"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C9" s="14" t="s">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>31</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>11.3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>2.7433628318584069</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AF9" s="13"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C10" s="14" t="s">
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>25.2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>14.4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="7">
         <v>0.75</v>
       </c>
-      <c r="AF10" s="13"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF11" s="13"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <v>17.7</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="7">
         <v>12</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="7">
         <f>J12/K12</f>
         <v>1.4749999999999999</v>
       </c>
-      <c r="P12" s="13">
-        <v>1</v>
-      </c>
-      <c r="R12" s="13">
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="S12" s="13">
-        <v>1</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
         <v>31.9</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="7">
         <v>7.8</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="7">
         <f>W12/X12</f>
         <v>4.0897435897435894</v>
       </c>
-      <c r="AC12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="13">
+      <c r="AC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="7">
         <v>0.625</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF12" s="7">
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C13" s="14" t="s">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="7">
         <v>14</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="7">
         <v>7</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="7">
         <f>M13/N13</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="13">
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
         <v>26</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="7">
         <v>8</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="7">
         <f>Z13/AA13</f>
         <v>3.25</v>
       </c>
-      <c r="AD13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C14" s="14" t="s">
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="7">
         <v>21.4</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="7">
         <v>4</v>
       </c>
-      <c r="O14" s="13">
-        <f t="shared" ref="O14:O49" si="1">M14/N14</f>
+      <c r="O14" s="7">
+        <f t="shared" ref="O14:O71" si="1">M14/N14</f>
         <v>5.35</v>
       </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="13">
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7">
         <v>31.6</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="7">
         <v>4.3</v>
       </c>
-      <c r="AB14" s="13">
-        <f t="shared" ref="AB14:AB50" si="2">Z14/AA14</f>
+      <c r="AB14" s="7">
+        <f t="shared" ref="AB14:AB71" si="2">Z14/AA14</f>
         <v>7.3488372093023262</v>
       </c>
-      <c r="AD14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C15" s="14" t="s">
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="7">
         <v>10.1</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="7">
         <v>5.3</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>1.9056603773584906</v>
       </c>
-      <c r="Q15" s="13">
-        <v>1</v>
-      </c>
-      <c r="T15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="13">
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="7">
         <v>6.9</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="7">
         <v>7.9</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="7">
         <f t="shared" si="2"/>
         <v>0.87341772151898733</v>
       </c>
-      <c r="AD15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13">
+      <c r="AD15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AF16" s="13"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AF16" s="7"/>
+      <c r="AL16" s="7" t="e">
+        <f t="shared" ref="AL16:AL67" si="3">AJ16/AK16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO16" s="7" t="e">
+        <f t="shared" ref="AO16:AO71" si="4">AM16/AN16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>9</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
         <v>18.8</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="7">
         <v>12</v>
       </c>
-      <c r="L17" s="13">
-        <f t="shared" ref="L13:L31" si="3">J17/K17</f>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:L80" si="5">J17/K17</f>
         <v>1.5666666666666667</v>
       </c>
-      <c r="P17" s="13">
-        <v>1</v>
-      </c>
-      <c r="R17" s="13">
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
         <v>0.75</v>
       </c>
-      <c r="S17" s="13">
-        <v>1</v>
-      </c>
-      <c r="T17" s="13">
-        <v>0</v>
-      </c>
-      <c r="U17" s="13">
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
         <v>31.7</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="7">
         <v>6.8</v>
       </c>
-      <c r="Y17" s="13">
-        <f t="shared" ref="Y13:Y31" si="4">W17/X17</f>
+      <c r="Y17" s="7">
+        <f t="shared" ref="Y17:Y80" si="6">W17/X17</f>
         <v>4.6617647058823533</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AE17" s="7">
         <v>0.5625</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="8">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AG17" s="13" t="s">
+      <c r="AG17" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C18" s="14" t="s">
+      <c r="AL17" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO17" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="7">
         <v>14.9</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="7">
         <v>7.1</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>2.098591549295775</v>
       </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="13">
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="7">
         <v>15</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="7">
         <v>6.9</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="7">
         <f t="shared" si="2"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="AD18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C19" s="14" t="s">
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO18" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="7">
         <v>11.1</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="7">
         <v>5.5</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>2.0181818181818181</v>
       </c>
-      <c r="Q19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="13">
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="7">
         <v>6.7</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="7">
         <v>7.5</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="7">
         <f t="shared" si="2"/>
         <v>0.89333333333333331</v>
       </c>
-      <c r="AD19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="13">
+      <c r="AD19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AH19" s="14" t="s">
+      <c r="AH19" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
+      <c r="AL19" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO19" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AL20" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO20" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>3</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="8">
         <v>9</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <v>16</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="7">
         <v>11.3</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="7">
+        <f t="shared" si="5"/>
+        <v>1.415929203539823</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>31</v>
+      </c>
+      <c r="X21" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="6"/>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AL21" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>1.415929203539823</v>
-      </c>
-      <c r="P21" s="13">
-        <v>1</v>
-      </c>
-      <c r="R21" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="S21" s="13">
-        <v>1</v>
-      </c>
-      <c r="U21" s="13">
-        <v>0</v>
-      </c>
-      <c r="V21" s="13">
-        <v>0</v>
-      </c>
-      <c r="W21" s="13">
-        <v>31</v>
-      </c>
-      <c r="X21" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="Y21" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO21" s="7" t="e">
         <f t="shared" si="4"/>
-        <v>4.1333333333333337</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AE21" s="13">
-        <v>0.5625</v>
-      </c>
-      <c r="AF21" s="14">
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C22" s="14" t="s">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="7">
         <v>17</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="7">
         <v>3.8</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="7">
         <f t="shared" si="1"/>
         <v>4.4736842105263159</v>
       </c>
-      <c r="Q22" s="13">
-        <v>0</v>
-      </c>
-      <c r="T22" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="13">
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="7">
         <v>25.4</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="7">
         <f t="shared" si="2"/>
         <v>5.7727272727272716</v>
       </c>
-      <c r="AD22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C23" s="14" t="s">
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO22" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="7">
         <v>10</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="7">
         <f t="shared" si="1"/>
         <v>2.0408163265306123</v>
       </c>
-      <c r="Q23" s="13">
-        <v>1</v>
-      </c>
-      <c r="T23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="13">
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="7">
         <v>7.2</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="7">
         <f t="shared" si="2"/>
         <v>0.8674698795180722</v>
       </c>
-      <c r="AD23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="13">
+      <c r="AD23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="7">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
+      <c r="AL23" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AL24" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>4</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="8">
         <v>15</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="7">
         <v>11.5</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7478260869565219</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="X25" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="6"/>
+        <v>5.5434782608695654</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AL25" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>1.7478260869565219</v>
-      </c>
-      <c r="P25" s="13">
-        <v>1</v>
-      </c>
-      <c r="R25" s="13">
-        <v>0.8125</v>
-      </c>
-      <c r="S25" s="13">
-        <v>1</v>
-      </c>
-      <c r="U25" s="13">
-        <v>0</v>
-      </c>
-      <c r="V25" s="13">
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <v>25.5</v>
-      </c>
-      <c r="X25" s="13">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y25" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="7" t="e">
         <f t="shared" si="4"/>
-        <v>5.5434782608695654</v>
-      </c>
-      <c r="AE25" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="AF25" s="14">
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C26" s="14" t="s">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="7">
         <v>10.9</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="7">
         <v>6.5</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="7">
         <f t="shared" si="1"/>
         <v>1.676923076923077</v>
       </c>
-      <c r="Q26" s="13">
-        <v>0</v>
-      </c>
-      <c r="T26" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="13">
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
         <v>24.4</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="7">
         <f t="shared" si="2"/>
         <v>5.304347826086957</v>
       </c>
-      <c r="AC26" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C27" s="14" t="s">
+      <c r="AC26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO26" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="7">
         <v>19.3</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="7">
         <v>3.5</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="7">
         <f t="shared" si="1"/>
         <v>5.5142857142857142</v>
       </c>
-      <c r="Q27" s="13">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="13">
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="7">
         <v>21.3</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="7">
         <v>2.5</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="7">
         <f t="shared" si="2"/>
         <v>8.52</v>
       </c>
-      <c r="AD27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C28" s="14" t="s">
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="7">
         <v>18.8</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="7">
         <v>5.9</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="7">
         <f t="shared" si="1"/>
         <v>3.1864406779661016</v>
       </c>
-      <c r="Q28" s="13">
-        <v>1</v>
-      </c>
-      <c r="T28" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="13">
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="7">
         <v>27.1</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="7">
         <v>3.5</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="7">
         <f t="shared" si="2"/>
         <v>7.7428571428571429</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="7">
         <v>0.6</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C29" s="14" t="s">
+      <c r="AL28" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO28" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="7">
         <v>5.4</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="7">
         <f t="shared" si="1"/>
         <v>1.7962962962962961</v>
       </c>
-      <c r="Q29" s="13">
-        <v>1</v>
-      </c>
-      <c r="T29" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="13">
+      <c r="Q29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="7">
         <v>4</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="7">
         <v>4.5</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="7">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="AD29" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="13">
+      <c r="AD29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="7">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="13">
+      <c r="AL29" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AL30" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>5</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="8">
         <v>21</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="13">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
-      <c r="J31" s="13">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
         <v>11</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="7">
         <v>7.3</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5068493150684932</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
+      <c r="U31" s="7">
+        <v>2</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>31</v>
+      </c>
+      <c r="X31" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="6"/>
+        <v>7.2093023255813957</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AL31" s="7" t="e">
         <f t="shared" si="3"/>
-        <v>1.5068493150684932</v>
-      </c>
-      <c r="P31" s="13">
-        <v>1</v>
-      </c>
-      <c r="R31" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="S31" s="13">
-        <v>1</v>
-      </c>
-      <c r="U31" s="13">
-        <v>2</v>
-      </c>
-      <c r="V31" s="13">
-        <v>0</v>
-      </c>
-      <c r="W31" s="13">
-        <v>31</v>
-      </c>
-      <c r="X31" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="Y31" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO31" s="7" t="e">
         <f t="shared" si="4"/>
-        <v>7.2093023255813957</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AF31" s="14">
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C32" s="14" t="s">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="7">
         <v>7</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="7">
         <v>4</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="7">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="Q32" s="13">
-        <v>0</v>
-      </c>
-      <c r="T32" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="13">
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
         <v>27.3</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="7">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB32" s="7">
         <f t="shared" si="2"/>
         <v>6.3488372093023262</v>
       </c>
-      <c r="AD32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C33" s="14" t="s">
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="7">
         <v>11.6</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="7">
         <v>6.9</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="7">
         <f t="shared" si="1"/>
         <v>1.681159420289855</v>
       </c>
-      <c r="Q33" s="13">
-        <v>1</v>
-      </c>
-      <c r="T33" s="13">
+      <c r="Q33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Z33" s="13">
+      <c r="Z33" s="7">
         <v>9.6</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AA33" s="7">
         <v>6.8</v>
       </c>
-      <c r="AB33" s="13">
+      <c r="AB33" s="7">
         <f t="shared" si="2"/>
         <v>1.411764705882353</v>
       </c>
-      <c r="AD33" s="13">
+      <c r="AD33" s="7">
         <v>0.75</v>
       </c>
-      <c r="AG33" s="13">
+      <c r="AG33" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C34" s="14" t="s">
+      <c r="AL33" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO33" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="7">
         <v>12.4</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="7">
         <f t="shared" si="1"/>
         <v>5.3913043478260878</v>
       </c>
-      <c r="Q34" s="13">
-        <v>0</v>
-      </c>
-      <c r="T34" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="13">
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="7">
         <v>30.6</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AB34" s="7">
         <f t="shared" si="2"/>
         <v>13.304347826086959</v>
       </c>
-      <c r="AD34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C35" s="14" t="s">
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="7">
         <v>9</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="7">
         <v>4.5</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q35" s="13">
-        <v>1</v>
-      </c>
-      <c r="T35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="13">
+      <c r="Q35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="7">
         <v>19.3</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA35" s="7">
         <v>3.3</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB35" s="7">
         <f t="shared" si="2"/>
         <v>5.8484848484848486</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD35" s="7">
         <v>0.8</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AG35" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C36" s="14" t="s">
+      <c r="AL35" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="7">
         <v>10.5</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="7">
         <v>3.6</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="7">
         <f t="shared" si="1"/>
         <v>2.9166666666666665</v>
       </c>
-      <c r="Q36" s="13">
-        <v>1</v>
-      </c>
-      <c r="T36" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="13">
+      <c r="Q36" s="7">
+        <v>1</v>
+      </c>
+      <c r="T36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7">
         <v>10</v>
       </c>
-      <c r="AA36" s="13">
+      <c r="AA36" s="7">
         <v>5</v>
       </c>
-      <c r="AB36" s="13">
+      <c r="AB36" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AD36" s="13">
+      <c r="AD36" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AG36" s="13">
+      <c r="AG36" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C37" s="14" t="s">
+      <c r="AL36" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO36" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="7">
         <v>6.3</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="7">
         <f t="shared" si="1"/>
         <v>1.5365853658536586</v>
       </c>
-      <c r="Q37" s="13">
-        <v>1</v>
-      </c>
-      <c r="T37" s="13">
+      <c r="Q37" s="7">
+        <v>1</v>
+      </c>
+      <c r="T37" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="7">
         <v>8.9</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="7">
         <v>6.2</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="7">
         <f t="shared" si="2"/>
         <v>1.435483870967742</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD37" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AG37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O38" s="13" t="e">
+      <c r="AG37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO37" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AL38" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO38" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8">
+        <v>19</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="K39" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6226415094339623</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S39" s="7">
+        <v>1</v>
+      </c>
+      <c r="U39" s="7">
+        <v>2</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="X39" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="6"/>
+        <v>6.963636363636363</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AF39" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="7">
+        <v>30</v>
+      </c>
+      <c r="AK39" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="AL39" s="7">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="AO39" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR39" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AS39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="N40" s="7">
+        <v>11</v>
+      </c>
+      <c r="O40" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O39" s="13" t="e">
+        <v>1.2909090909090908</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AN40" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AO40" s="7">
+        <f t="shared" si="4"/>
+        <v>1.4358974358974359</v>
+      </c>
+      <c r="AQ40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="N41" s="7">
+        <v>7</v>
+      </c>
+      <c r="O41" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O40" s="13" t="e">
+        <v>2.6</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AN41" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AO41" s="7">
+        <f t="shared" si="4"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AQ41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="N42" s="7">
+        <v>15</v>
+      </c>
+      <c r="O42" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O41" s="13" t="e">
+        <v>1.3133333333333332</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" si="2"/>
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AM42" s="7">
+        <v>26.8</v>
+      </c>
+      <c r="AN42" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AO42" s="7">
+        <f t="shared" si="4"/>
+        <v>4.1230769230769235</v>
+      </c>
+      <c r="AQ42" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT42" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="O43" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O42" s="13" t="e">
+        <v>1.4461538461538461</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>1</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>15</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AN43" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO43" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="AQ43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>23</v>
+      </c>
+      <c r="B45" s="8">
+        <v>17</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="K45" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6615384615384616</v>
+      </c>
+      <c r="P45" s="7">
+        <v>1</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
+      </c>
+      <c r="U45" s="7">
+        <v>1</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="X45" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="Y45" s="7">
+        <f t="shared" si="6"/>
+        <v>7.083333333333333</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AF45" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="7">
+        <v>24</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AL45" s="7">
+        <f t="shared" si="3"/>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="AP45" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR45" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS45" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="7">
+        <v>9</v>
+      </c>
+      <c r="N46" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="O46" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O43" s="13" t="e">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB46" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1444444444444446</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM46" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AN46" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AO46" s="7">
+        <f t="shared" si="4"/>
+        <v>1.4716981132075473</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT46" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="7">
+        <v>11</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="O47" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O44" s="13" t="e">
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>1</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AB47" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2894736842105274</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AM47" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AN47" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AO47" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6874999999999996</v>
+      </c>
+      <c r="AQ47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O48" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O45" s="13" t="e">
+        <v>3.3529411764705883</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>1</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>14</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="AB48" s="7">
+        <f t="shared" si="2"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AG48" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AM48" s="7">
+        <v>16</v>
+      </c>
+      <c r="AN48" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AO48" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4782608695652177</v>
+      </c>
+      <c r="AQ48" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT48" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AO49" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>24</v>
+      </c>
+      <c r="B50" s="8">
+        <v>13</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="K50" s="7">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P50" s="7">
+        <v>1</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="S50" s="7">
+        <v>1</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="X50" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="Y50" s="7">
+        <f t="shared" si="6"/>
+        <v>6.4324324324324325</v>
+      </c>
+      <c r="AC50" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AE50" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AF50" s="8">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AH50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="AK50" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AL50" s="7">
+        <f t="shared" si="3"/>
+        <v>7.6052631578947372</v>
+      </c>
+      <c r="AO50" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP50" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AS50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N51" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="O51" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O46" s="13" t="e">
+        <v>3.203389830508474</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>1</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AB51" s="7">
+        <f t="shared" si="2"/>
+        <v>6.9736842105263159</v>
+      </c>
+      <c r="AD51" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AG51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AM51" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AN51" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AO51" s="7">
+        <f t="shared" si="4"/>
+        <v>3.3888888888888884</v>
+      </c>
+      <c r="AQ51" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="N52" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="O52" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O47" s="13" t="e">
+        <v>2.7547169811320753</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>1</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="7">
+        <f t="shared" si="2"/>
+        <v>0.86</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM52" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AN52" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AO52" s="7">
+        <f t="shared" si="4"/>
+        <v>2.096774193548387</v>
+      </c>
+      <c r="AQ52" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>25</v>
+      </c>
+      <c r="B54" s="8">
+        <v>17</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="7">
+        <v>3</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7">
+        <v>8</v>
+      </c>
+      <c r="K54" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="L54" s="7">
+        <f t="shared" si="5"/>
+        <v>1.4035087719298245</v>
+      </c>
+      <c r="P54" s="7">
+        <v>1</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S54" s="7">
+        <v>1</v>
+      </c>
+      <c r="U54" s="7">
+        <v>2</v>
+      </c>
+      <c r="V54" s="7">
+        <v>2</v>
+      </c>
+      <c r="W54" s="7">
+        <v>24</v>
+      </c>
+      <c r="X54" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF54" s="8">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ54" s="7">
+        <v>21</v>
+      </c>
+      <c r="AK54" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AL54" s="7">
+        <f t="shared" si="3"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AP54" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR54" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AS54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N55" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="O55" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="O48" s="13" t="e">
+        <v>1.2597402597402596</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0918367346938773</v>
+      </c>
+      <c r="AD55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM55" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AN55" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AO55" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6615384615384616</v>
+      </c>
+      <c r="AQ55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="O56" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O49" s="13" t="e">
+        <v>4.4736842105263159</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AB56" s="7">
+        <f t="shared" si="2"/>
+        <v>9.84</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AO56" s="7">
+        <f t="shared" si="4"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="AQ56" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="7">
+        <v>12</v>
+      </c>
+      <c r="N57" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="O57" s="7">
+        <f>M58/N58</f>
+        <v>1.6176470588235294</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>1</v>
+      </c>
+      <c r="T57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="AB57" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1188811188811187</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AG57" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM57" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="AN57" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AO57" s="7">
+        <f t="shared" si="4"/>
+        <v>4.2558139534883725</v>
+      </c>
+      <c r="AQ57" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT57" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="N58" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O58" s="7">
+        <f>M59/N59</f>
+        <v>2.9148936170212765</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>1</v>
+      </c>
+      <c r="T58" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>7</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="AB58" s="7">
+        <f t="shared" si="2"/>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="AD58" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM58" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="AN58" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AO58" s="7">
+        <f t="shared" si="4"/>
+        <v>1.71875</v>
+      </c>
+      <c r="AQ58" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="N59" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="AB59" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2475247524752475</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="7">
+        <v>14</v>
+      </c>
+      <c r="AN59" s="7">
+        <v>5</v>
+      </c>
+      <c r="AO59" s="7">
+        <f t="shared" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="AQ59" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A61" s="7">
+        <v>26</v>
+      </c>
+      <c r="B61" s="8">
+        <v>16</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K61" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5081967213114753</v>
+      </c>
+      <c r="P61" s="7">
+        <v>1</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="S61" s="7">
+        <v>1</v>
+      </c>
+      <c r="U61" s="7">
+        <v>2</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="X61" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y61" s="7">
+        <f t="shared" si="6"/>
+        <v>6.625</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF61" s="8">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI61" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ61" s="7">
+        <v>20</v>
+      </c>
+      <c r="AK61" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AL61" s="7">
+        <f t="shared" si="3"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="AP61" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR61" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AS61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="N62" s="7">
+        <v>7</v>
+      </c>
+      <c r="O62" s="7">
         <f t="shared" si="1"/>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>12</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AB62" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM62" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AN62" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AO62" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6911764705882353</v>
+      </c>
+      <c r="AQ62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="N63" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O63" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3714285714285714</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>1</v>
+      </c>
+      <c r="T63" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="AB63" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1146496815286624</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AG63" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AM63" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="AN63" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AO63" s="7">
+        <f t="shared" si="4"/>
+        <v>3.3859649122807016</v>
+      </c>
+      <c r="AQ63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT63" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="N64" s="7">
+        <v>4</v>
+      </c>
+      <c r="O64" s="7">
+        <f t="shared" si="1"/>
+        <v>1.425</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>1</v>
+      </c>
+      <c r="T64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB64" s="7">
+        <f t="shared" si="2"/>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AD64" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM64" s="7">
+        <v>6</v>
+      </c>
+      <c r="AN64" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AO64" s="7">
+        <f t="shared" si="4"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AQ64" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="N65" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O65" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>1</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>11</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="AN65" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AO65" s="7">
+        <f t="shared" si="4"/>
+        <v>2.3518518518518516</v>
+      </c>
+      <c r="AQ65" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>27</v>
+      </c>
+      <c r="B67" s="8">
+        <v>15</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="7">
+        <v>3</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K67" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L67" s="7">
+        <f t="shared" si="5"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="S67" s="7">
+        <v>1</v>
+      </c>
+      <c r="U67" s="7">
+        <v>2</v>
+      </c>
+      <c r="V67" s="7">
+        <v>0</v>
+      </c>
+      <c r="W67" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="X67" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="Y67" s="7">
+        <f t="shared" si="6"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF67" s="8">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AH67" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ67" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="AK67" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL67" s="7">
+        <f t="shared" si="3"/>
+        <v>5.375</v>
+      </c>
+      <c r="AP67" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR67" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AS67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="N68" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="O68" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9275362318840579</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB68" s="7">
+        <f t="shared" si="2"/>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="AD68" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG68" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM68" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AN68" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AO68" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6896551724137934</v>
+      </c>
+      <c r="AQ68" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N69" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AB69" s="7">
+        <f t="shared" si="2"/>
+        <v>8.7037037037037024</v>
+      </c>
+      <c r="AD69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM69" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="AN69" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AO69" s="7">
+        <f t="shared" si="4"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="AQ69" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="7">
+        <v>13</v>
+      </c>
+      <c r="N70" s="7">
+        <v>4</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>21</v>
+      </c>
+      <c r="T70" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB70" s="7">
+        <f t="shared" si="2"/>
+        <v>0.99285714285714288</v>
+      </c>
+      <c r="AD70" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AG70" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AM70" s="7">
+        <v>19</v>
+      </c>
+      <c r="AN70" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AO70" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7254901960784315</v>
+      </c>
+      <c r="AQ70" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT70" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="N71" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3488372093023258</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T71" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB71" s="7">
+        <f t="shared" si="2"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AD71" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM71" s="7">
+        <v>7</v>
+      </c>
+      <c r="AN71" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AO71" s="7">
+        <f t="shared" si="4"/>
+        <v>2.258064516129032</v>
+      </c>
+      <c r="AQ71" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AU72" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>2</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C74" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C75" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C76" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C77" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="C78" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
+        <v>6</v>
+      </c>
+      <c r="B80" s="8">
+        <v>18</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="7">
+        <v>3</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="K80" s="7">
+        <v>12</v>
+      </c>
+      <c r="L80" s="7">
+        <f t="shared" si="5"/>
+        <v>2.5916666666666668</v>
+      </c>
+      <c r="P80" s="7">
+        <v>1</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="U80" s="7">
+        <v>1</v>
+      </c>
+      <c r="V80" s="7">
+        <v>3</v>
+      </c>
+      <c r="W80" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="X80" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="Y80" s="7">
+        <f t="shared" si="6"/>
+        <v>3.2465753424657535</v>
+      </c>
+      <c r="AC80" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE80" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="AF80" s="8">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="AH80" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="7">
+        <v>32</v>
+      </c>
+      <c r="AK80" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AL80" s="7">
+        <f t="shared" ref="AL80:AL143" si="7">AJ80/AK80</f>
+        <v>3.2653061224489792</v>
+      </c>
+      <c r="AP80" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR80" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="AS80" s="7">
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="N81" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="O81" s="7">
+        <f t="shared" ref="O81:O144" si="8">M81/N81</f>
+        <v>1.6233766233766234</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>1</v>
+      </c>
+      <c r="T81" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AA81" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB81" s="7">
+        <f t="shared" ref="AB81:AB144" si="9">Z81/AA81</f>
+        <v>3.5869565217391308</v>
+      </c>
+      <c r="AD81" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG81" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AM81" s="7">
+        <v>16</v>
+      </c>
+      <c r="AN81" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AO81" s="7">
+        <f>AM81/AN81</f>
+        <v>3.0769230769230766</v>
+      </c>
+      <c r="AQ81" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AT81" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="N82" s="7">
+        <v>1</v>
+      </c>
+      <c r="O82" s="7">
+        <f t="shared" si="8"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>1</v>
+      </c>
+      <c r="T82" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z82" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="AA82" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AB82" s="7">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AD82" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG82" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM82" s="7">
+        <v>28</v>
+      </c>
+      <c r="AN82" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO82" s="7">
+        <f>AM82/AN82</f>
+        <v>7</v>
+      </c>
+      <c r="AQ82" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT82" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <v>7</v>
+      </c>
+      <c r="B84" s="8">
+        <v>14</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="K84" s="7">
+        <v>12</v>
+      </c>
+      <c r="L84" s="7">
+        <f t="shared" ref="L84:L147" si="10">J84/K84</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="P84" s="7">
+        <v>1</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S84" s="7">
+        <v>1</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7">
+        <v>4</v>
+      </c>
+      <c r="W84" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="X84" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Y84" s="7">
+        <f t="shared" ref="Y84:Y147" si="11">W84/X84</f>
+        <v>3.6538461538461537</v>
+      </c>
+      <c r="AC84" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF84" s="8">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="AH84" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="AK84" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AL84" s="7">
+        <f t="shared" si="7"/>
+        <v>2.5809523809523811</v>
+      </c>
+      <c r="AP84" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR84" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AS84" s="7">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N85" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="O85" s="7">
+        <f t="shared" si="8"/>
+        <v>1.957446808510638</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>1</v>
+      </c>
+      <c r="T85" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="AA85" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB85" s="7">
+        <f t="shared" si="9"/>
+        <v>11.956521739130435</v>
+      </c>
+      <c r="AD85" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM85" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="AN85" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AO85" s="7">
+        <f t="shared" ref="AO85:AO148" si="12">AM85/AN85</f>
+        <v>6.4883720930232558</v>
+      </c>
+      <c r="AQ85" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT85" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
+        <v>11</v>
+      </c>
+      <c r="B87" s="8">
+        <v>17</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="K87" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="L87" s="7">
+        <f t="shared" si="10"/>
+        <v>1.304</v>
+      </c>
+      <c r="P87" s="7">
+        <v>1</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="S87" s="7">
+        <v>1</v>
+      </c>
+      <c r="U87" s="7">
+        <v>2</v>
+      </c>
+      <c r="V87" s="7">
+        <v>1</v>
+      </c>
+      <c r="W87" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="X87" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="Y87" s="7">
+        <f t="shared" si="11"/>
+        <v>3.7105263157894739</v>
+      </c>
+      <c r="AC87" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AH87" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI87" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="AK87" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AL87" s="7">
+        <f t="shared" si="7"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="AP87" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AS87" s="7">
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C88" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="N88" s="7">
+        <v>5</v>
+      </c>
+      <c r="O88" s="7">
+        <f t="shared" si="8"/>
+        <v>2.96</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>1</v>
+      </c>
+      <c r="T88" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="AA88" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="AB88" s="7">
+        <f t="shared" si="9"/>
+        <v>3.9508196721311482</v>
+      </c>
+      <c r="AD88" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AE88" s="7">
+        <v>0.53125</v>
+      </c>
+      <c r="AF88" s="8">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="AM88" s="7">
+        <v>25</v>
+      </c>
+      <c r="AN88" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AO88" s="7">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AQ88" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT88" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C89" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M89" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N89" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="O89" s="7">
+        <f t="shared" si="8"/>
+        <v>1.9166666666666665</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>1</v>
+      </c>
+      <c r="T89" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="AA89" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AB89" s="7">
+        <f t="shared" si="9"/>
+        <v>11.291666666666668</v>
+      </c>
+      <c r="AD89" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="7">
+        <v>21</v>
+      </c>
+      <c r="AN89" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AO89" s="7">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AQ89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AG90" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
+        <v>12</v>
+      </c>
+      <c r="B91" s="8">
+        <v>14</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>22</v>
+      </c>
+      <c r="K91" s="7">
+        <v>15</v>
+      </c>
+      <c r="L91" s="7">
+        <f t="shared" si="10"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="P91" s="7">
+        <v>1</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S91" s="7">
+        <v>1</v>
+      </c>
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
+      <c r="V91" s="7">
+        <v>1</v>
+      </c>
+      <c r="W91" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="X91" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="Y91" s="7">
+        <f t="shared" si="11"/>
+        <v>3.0930232558139537</v>
+      </c>
+      <c r="AC91" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF91" s="8">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AH91" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="7">
+        <v>32.5</v>
+      </c>
+      <c r="AK91" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="AL91" s="7">
+        <f t="shared" si="7"/>
+        <v>2.8017241379310347</v>
+      </c>
+      <c r="AP91" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR91" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AS91" s="7">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C92" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M92" s="7">
+        <v>12</v>
+      </c>
+      <c r="N92" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="O92" s="7">
+        <f t="shared" si="8"/>
+        <v>1.6901408450704227</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>1</v>
+      </c>
+      <c r="T92" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="AA92" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AB92" s="7">
+        <f t="shared" si="9"/>
+        <v>3.0930232558139537</v>
+      </c>
+      <c r="AD92" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG92" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM92" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="AN92" s="7">
+        <v>5</v>
+      </c>
+      <c r="AO92" s="7">
+        <f t="shared" si="12"/>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="AQ92" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT92" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
+        <v>13</v>
+      </c>
+      <c r="B94" s="8">
+        <v>23</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="7">
+        <v>2</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="K94" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="L94" s="7">
+        <f t="shared" si="10"/>
+        <v>1.6086956521739131</v>
+      </c>
+      <c r="P94" s="7">
+        <v>1</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="S94" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="U94" s="7">
+        <v>2</v>
+      </c>
+      <c r="V94" s="7">
+        <v>0</v>
+      </c>
+      <c r="W94" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="X94" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Y94" s="7">
+        <f t="shared" si="11"/>
+        <v>2.955223880597015</v>
+      </c>
+      <c r="AC94" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE94" s="7">
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="AF94" s="8">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="AH94" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ94" s="7">
+        <v>27</v>
+      </c>
+      <c r="AK94" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AL94" s="7">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="AP94" s="7">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AR94" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="AS94" s="7">
+        <v>5.4545454545454543E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C95" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M95" s="7">
+        <v>20</v>
+      </c>
+      <c r="N95" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O95" s="7">
+        <f t="shared" si="8"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T95" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y95" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z95" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="AA95" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AB95" s="7">
+        <f t="shared" si="9"/>
+        <v>6.3111111111111109</v>
+      </c>
+      <c r="AD95" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG95" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM95" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="AN95" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO95" s="7">
+        <f t="shared" si="12"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AQ95" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT95" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C96" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M96" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="N96" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="O96" s="7">
+        <f t="shared" si="8"/>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>1</v>
+      </c>
+      <c r="T96" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y96" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z96" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA96" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AB96" s="7">
+        <f t="shared" si="9"/>
+        <v>4.8837209302325579</v>
+      </c>
+      <c r="AD96" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG96" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AM96" s="7">
+        <v>19</v>
+      </c>
+      <c r="AN96" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AO96" s="7">
+        <f t="shared" si="12"/>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="AQ96" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT96" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M97" s="7">
+        <v>7</v>
+      </c>
+      <c r="N97" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O97" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0588235294117649</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>1</v>
+      </c>
+      <c r="T97" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z97" s="7">
+        <v>17</v>
+      </c>
+      <c r="AA97" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB97" s="7">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AD97" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG97" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM97" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AN97" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AO97" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5777777777777779</v>
+      </c>
+      <c r="AQ97" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT97" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C98" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M98" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N98" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="O98" s="7">
+        <f t="shared" si="8"/>
+        <v>2.7187499999999996</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>1</v>
+      </c>
+      <c r="T98" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z98" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA98" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AB98" s="7">
+        <f t="shared" si="9"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="AD98" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG98" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM98" s="7">
+        <v>15</v>
+      </c>
+      <c r="AN98" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AO98" s="7">
+        <f t="shared" si="12"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="AQ98" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT98" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="O99" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y99" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO99" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>14</v>
+      </c>
+      <c r="B100" s="8">
+        <v>20</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="7">
+        <v>4</v>
+      </c>
+      <c r="I100" s="7">
+        <v>3</v>
+      </c>
+      <c r="J100" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="K100" s="7">
+        <v>13</v>
+      </c>
+      <c r="L100" s="7">
+        <f t="shared" si="10"/>
+        <v>1.1923076923076923</v>
+      </c>
+      <c r="O100" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y100" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO100" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M101" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="N101" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="O101" s="7">
+        <f t="shared" si="8"/>
+        <v>3.1551724137931036</v>
+      </c>
+      <c r="Y101" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO101" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C102" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M102" s="7">
+        <v>15</v>
+      </c>
+      <c r="N102" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O102" s="7">
+        <f t="shared" si="8"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="Y102" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO102" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" s="7">
+        <v>15</v>
+      </c>
+      <c r="N103" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O103" s="7">
+        <f t="shared" si="8"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="Y103" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO103" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="O104" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y104" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO104" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A105" s="7">
+        <v>16</v>
+      </c>
+      <c r="B105" s="8">
+        <v>14</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="K105" s="7">
+        <v>14</v>
+      </c>
+      <c r="L105" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3071428571428572</v>
+      </c>
+      <c r="O105" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P105" s="7">
+        <v>1</v>
+      </c>
+      <c r="R105" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S105" s="7">
+        <v>1</v>
+      </c>
+      <c r="U105" s="7">
+        <v>1</v>
+      </c>
+      <c r="V105" s="7">
+        <v>3</v>
+      </c>
+      <c r="W105" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="X105" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="7">
+        <f t="shared" si="11"/>
+        <v>3.2</v>
+      </c>
+      <c r="AC105" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AE105" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AF105" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AH105" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AK105" s="7">
+        <v>9</v>
+      </c>
+      <c r="AL105" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1555555555555554</v>
+      </c>
+      <c r="AO105" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP105" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR105" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AS105" s="7">
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C106" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L106" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M106" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="N106" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="O106" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>1</v>
+      </c>
+      <c r="T106" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA106" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AB106" s="7">
+        <f t="shared" si="9"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AD106" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG106" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="7">
+        <v>9</v>
+      </c>
+      <c r="AN106" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO106" s="7">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AQ106" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT106" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L107" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A108" s="7">
+        <v>17</v>
+      </c>
+      <c r="B108" s="8">
+        <v>19</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
+        <v>14</v>
+      </c>
+      <c r="K108" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="L108" s="7">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="P108" s="7">
+        <v>1</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="S108" s="7">
+        <v>1</v>
+      </c>
+      <c r="U108" s="7">
+        <v>2</v>
+      </c>
+      <c r="V108" s="7">
+        <v>1</v>
+      </c>
+      <c r="W108" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="X108" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="Y108" s="7">
+        <f t="shared" si="11"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AC108" s="7">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AE108" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="AF108" s="8">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="AH108" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI108" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ108" s="7">
+        <v>28</v>
+      </c>
+      <c r="AK108" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AL108" s="7">
+        <f t="shared" si="7"/>
+        <v>3.5897435897435899</v>
+      </c>
+      <c r="AP108" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR108" s="7">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="AS108" s="7">
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C109" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109" s="7">
+        <v>12</v>
+      </c>
+      <c r="N109" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O109" s="7">
+        <f t="shared" si="8"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>1</v>
+      </c>
+      <c r="T109" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="AA109" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AB109" s="7">
+        <f t="shared" si="9"/>
+        <v>4.6976744186046515</v>
+      </c>
+      <c r="AD109" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG109" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM109" s="7">
+        <v>22</v>
+      </c>
+      <c r="AN109" s="7">
+        <v>6</v>
+      </c>
+      <c r="AO109" s="7">
+        <f t="shared" si="12"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AQ109" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT109" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C110" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M110" s="7">
+        <v>16</v>
+      </c>
+      <c r="N110" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O110" s="7">
+        <f t="shared" si="8"/>
+        <v>3.7209302325581395</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T110" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z110" s="7">
+        <v>26</v>
+      </c>
+      <c r="AA110" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB110" s="7">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AD110" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG110" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM110" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="AN110" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AO110" s="7">
+        <f t="shared" si="12"/>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="AQ110" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT110" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C111" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M111" s="7">
+        <v>10</v>
+      </c>
+      <c r="N111" s="7">
+        <v>4</v>
+      </c>
+      <c r="O111" s="7">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>1</v>
+      </c>
+      <c r="T111" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z111" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AA111" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AB111" s="7">
+        <f t="shared" si="9"/>
+        <v>4.08</v>
+      </c>
+      <c r="AD111" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG111" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM111" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AN111" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO111" s="7">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="AQ111" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT111" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A113" s="7">
+        <v>19</v>
+      </c>
+      <c r="B113" s="8">
+        <v>25</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="7">
+        <v>5</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <v>17</v>
+      </c>
+      <c r="K113" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="L113" s="7">
+        <f t="shared" si="10"/>
+        <v>1.328125</v>
+      </c>
+      <c r="P113" s="7">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="S113" s="7">
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="U113" s="7">
+        <v>3</v>
+      </c>
+      <c r="V113" s="7">
+        <v>4</v>
+      </c>
+      <c r="W113" s="7">
+        <v>17</v>
+      </c>
+      <c r="X113" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Y113" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5373134328358207</v>
+      </c>
+      <c r="AC113" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="7">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AF113" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AH113" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ113" s="7">
+        <v>30</v>
+      </c>
+      <c r="AK113" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AL113" s="7">
+        <f t="shared" si="7"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="AP113" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR113" s="7">
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="AS113" s="7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C114" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M114" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N114" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="O114" s="7">
+        <f t="shared" si="8"/>
+        <v>1.43859649122807</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>1</v>
+      </c>
+      <c r="T114" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z114" s="7">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AA114" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB114" s="7">
+        <f t="shared" si="9"/>
+        <v>9.0227272727272734</v>
+      </c>
+      <c r="AD114" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG114" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL114" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM114" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AN114" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AO114" s="7">
+        <f t="shared" si="12"/>
+        <v>2.4571428571428569</v>
+      </c>
+      <c r="AQ114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT114" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L115" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M115" s="7">
+        <v>14</v>
+      </c>
+      <c r="N115" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="O115" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>1</v>
+      </c>
+      <c r="T115" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Y115" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z115" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AA115" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AB115" s="7">
+        <f t="shared" si="9"/>
+        <v>3.8666666666666663</v>
+      </c>
+      <c r="AD115" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG115" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AL115" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM115" s="7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AN115" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AO115" s="7">
+        <f t="shared" si="12"/>
+        <v>4.8857142857142861</v>
+      </c>
+      <c r="AQ115" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AT115" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="N116" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="O116" s="7">
+        <f t="shared" si="8"/>
+        <v>3.736842105263158</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T116" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z116" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="AA116" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AB116" s="7">
+        <f t="shared" si="9"/>
+        <v>3.0350877192982457</v>
+      </c>
+      <c r="AD116" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG116" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AL116" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM116" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AN116" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AO116" s="7">
+        <f t="shared" si="12"/>
+        <v>4.3255813953488378</v>
+      </c>
+      <c r="AQ116" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT116" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="117" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M117" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="N117" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="O117" s="7">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T117" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z117" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="AA117" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AB117" s="7">
+        <f t="shared" si="9"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="AD117" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG117" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL117" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM117" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="AN117" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO117" s="7">
+        <f t="shared" si="12"/>
+        <v>2.68</v>
+      </c>
+      <c r="AQ117" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C118" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L118" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="N118" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O118" s="7">
+        <f t="shared" si="8"/>
+        <v>7.5882352941176476</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T118" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y118" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z118" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AA118" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="AB118" s="7">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="AD118" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG118" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM118" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AN118" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AO118" s="7">
+        <f t="shared" si="12"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="AQ118" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AT118" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L119" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O119" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y119" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB119" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL119" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO119" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L120" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O120" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y120" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB120" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL120" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO120" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L121" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O121" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y121" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB121" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL121" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO121" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L122" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O122" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y122" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB122" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL122" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO122" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L123" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O123" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y123" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB123" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL123" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO123" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L124" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O124" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y124" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB124" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL124" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO124" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L125" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O125" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y125" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB125" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL125" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO125" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L126" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O126" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y126" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB126" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL126" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO126" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L127" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O127" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y127" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB127" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL127" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO127" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="L128" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O128" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y128" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB128" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL128" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO128" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L129" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O129" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y129" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB129" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL129" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO129" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L130" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O130" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y130" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB130" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL130" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO130" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L131" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O131" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y131" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB131" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL131" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO131" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L132" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O132" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y132" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB132" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL132" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO132" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L133" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O133" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y133" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB133" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL133" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO133" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L134" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O134" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y134" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB134" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL134" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO134" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L135" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O135" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y135" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB135" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL135" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO135" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L136" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O136" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y136" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB136" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL136" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO136" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L137" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O137" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y137" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB137" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL137" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO137" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L138" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O138" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y138" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB138" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL138" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO138" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L139" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O139" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y139" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB139" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL139" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO139" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L140" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O140" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y140" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB140" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL140" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO140" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L141" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O141" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y141" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB141" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL141" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO141" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L142" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O142" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y142" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB142" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL142" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO142" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L143" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O143" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y143" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB143" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL143" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO143" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L144" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O144" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y144" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB144" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL144" s="7" t="e">
+        <f t="shared" ref="AL144:AL199" si="13">AJ144/AK144</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO144" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L145" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O145" s="7" t="e">
+        <f t="shared" ref="O145:O159" si="14">M145/N145</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y145" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL145" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO145" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L146" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O146" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y146" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL146" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO146" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L147" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O147" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y147" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL147" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO147" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L148" s="7" t="e">
+        <f t="shared" ref="L148:L211" si="15">J148/K148</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O148" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y148" s="7" t="e">
+        <f t="shared" ref="Y148:Y199" si="16">W148/X148</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL148" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO148" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L149" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O149" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y149" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL149" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO149" s="7" t="e">
+        <f t="shared" ref="AO149:AO212" si="17">AM149/AN149</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L150" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O150" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y150" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL150" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO150" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L151" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O151" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y151" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL151" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO151" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L152" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O152" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y152" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL152" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO152" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L153" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O153" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y153" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL153" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO153" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L154" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O154" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y154" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL154" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO154" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L155" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O155" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y155" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL155" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO155" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L156" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O156" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y156" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL156" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO156" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L157" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O157" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y157" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL157" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO157" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L158" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O158" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y158" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL158" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO158" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L159" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O159" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y159" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL159" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO159" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L160" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y160" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL160" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO160" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L161" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y161" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL161" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO161" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L162" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y162" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL162" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO162" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L163" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y163" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL163" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO163" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L164" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y164" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL164" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO164" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L165" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y165" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL165" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO165" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L166" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y166" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL166" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO166" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L167" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y167" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL167" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO167" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L168" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y168" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL168" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO168" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L169" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y169" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL169" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO169" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L170" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y170" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL170" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO170" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L171" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y171" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL171" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO171" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L172" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y172" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL172" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO172" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L173" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y173" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL173" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO173" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L174" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y174" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL174" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO174" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L175" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y175" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL175" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO175" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L176" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y176" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL176" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO176" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L177" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y177" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL177" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO177" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L178" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y178" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL178" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO178" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L179" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y179" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL179" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO179" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L180" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y180" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL180" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO180" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L181" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y181" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL181" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO181" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L182" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y182" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL182" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO182" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L183" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y183" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL183" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO183" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L184" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y184" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL184" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO184" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L185" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y185" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL185" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO185" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L186" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y186" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL186" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO186" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L187" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y187" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL187" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO187" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L188" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y188" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL188" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO188" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L189" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y189" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL189" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO189" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L190" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y190" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL190" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO190" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L191" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y191" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL191" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO191" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L192" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y192" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL192" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO192" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L193" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y193" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL193" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO193" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L194" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y194" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL194" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO194" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L195" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y195" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL195" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO195" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L196" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y196" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL196" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO196" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L197" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y197" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL197" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO197" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L198" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y198" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL198" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO198" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L199" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y199" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL199" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO199" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L200" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO200" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L201" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO201" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L202" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO202" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L203" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO203" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L204" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO204" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L205" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO205" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L206" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO206" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L207" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO207" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L208" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO208" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L209" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO209" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L210" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO210" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L211" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO211" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L212" s="7" t="e">
+        <f t="shared" ref="L212:L240" si="18">J212/K212</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO212" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L213" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO213" s="7" t="e">
+        <f t="shared" ref="AO213:AO218" si="19">AM213/AN213</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L214" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO214" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L215" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO215" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L216" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO216" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L217" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO217" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L218" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO218" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L219" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L220" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L221" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L222" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="223" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L223" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="224" spans="12:41" x14ac:dyDescent="0.35">
+      <c r="L224" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L225" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L226" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L227" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L228" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L229" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L230" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L231" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L232" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L233" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L234" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L235" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L236" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L237" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L238" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L239" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L240" s="7" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H1:T1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="U1:AG1"/>
+    <mergeCell ref="AH1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/concerndata.xlsx
+++ b/concerndata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C01BFD8E-AC14-4A94-BCB5-31D41FD145D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8114C03A-78D5-447E-B299-079362E84EC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
   <si>
     <t>#Exp</t>
   </si>
@@ -661,13 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU240"/>
+  <dimension ref="A1:AU125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AH88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV104" sqref="AV104"/>
+      <selection pane="bottomRight" activeCell="AQ125" sqref="AQ125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1109,6 +1109,31 @@
       <c r="AF12" s="7">
         <v>0.13333333333333333</v>
       </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AL12" s="7">
+        <f>AJ12/AK12</f>
+        <v>5.6607142857142856</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C13" s="8" t="s">
@@ -1147,6 +1172,22 @@
       <c r="AG13" s="7">
         <v>0</v>
       </c>
+      <c r="AM13" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="7">
+        <f t="shared" ref="AO13:AO15" si="1">AM13/AN13</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C14" s="8" t="s">
@@ -1159,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" ref="O14:O71" si="1">M14/N14</f>
+        <f t="shared" ref="O14:O71" si="2">M14/N14</f>
         <v>5.35</v>
       </c>
       <c r="Q14" s="7">
@@ -1175,7 +1216,7 @@
         <v>4.3</v>
       </c>
       <c r="AB14" s="7">
-        <f t="shared" ref="AB14:AB71" si="2">Z14/AA14</f>
+        <f t="shared" ref="AB14:AB71" si="3">Z14/AA14</f>
         <v>7.3488372093023262</v>
       </c>
       <c r="AD14" s="7">
@@ -1183,6 +1224,22 @@
       </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO14" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1197,7 +1254,7 @@
         <v>5.3</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9056603773584906</v>
       </c>
       <c r="Q15" s="7">
@@ -1213,7 +1270,7 @@
         <v>7.9</v>
       </c>
       <c r="AB15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87341772151898733</v>
       </c>
       <c r="AD15" s="7">
@@ -1223,19 +1280,27 @@
       <c r="AG15" s="7">
         <v>0.33333333333333331</v>
       </c>
+      <c r="AM15" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4772727272727271</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="AF16" s="7"/>
-      <c r="AL16" s="7" t="e">
-        <f t="shared" ref="AL16:AL67" si="3">AJ16/AK16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO16" s="7" t="e">
-        <f t="shared" ref="AO16:AO71" si="4">AM16/AN16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -1258,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17:L80" si="5">J17/K17</f>
+        <f t="shared" ref="L17:L80" si="4">J17/K17</f>
         <v>1.5666666666666667</v>
       </c>
       <c r="P17" s="7">
@@ -1286,7 +1351,7 @@
         <v>6.8</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" ref="Y17:Y80" si="6">W17/X17</f>
+        <f t="shared" ref="Y17:Y80" si="5">W17/X17</f>
         <v>4.6617647058823533</v>
       </c>
       <c r="AC17" s="7">
@@ -1301,16 +1366,33 @@
       <c r="AG17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL17" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO17" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AH17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AL17" s="7">
+        <f t="shared" ref="AL16:AL67" si="6">AJ17/AK17</f>
+        <v>5.8888888888888884</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1403,7 @@
         <v>7.1</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.098591549295775</v>
       </c>
       <c r="Q18" s="7">
@@ -1337,7 +1419,7 @@
         <v>6.9</v>
       </c>
       <c r="AB18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="AD18" s="7">
@@ -1346,16 +1428,24 @@
       <c r="AG18" s="7">
         <v>0</v>
       </c>
-      <c r="AL18" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO18" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM18" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AO18" s="7">
+        <f t="shared" ref="AO16:AO71" si="7">AM18/AN18</f>
+        <v>2.4523809523809526</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1456,7 @@
         <v>5.5</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0181818181818181</v>
       </c>
       <c r="Q19" s="7">
@@ -1379,7 +1469,7 @@
         <v>7.5</v>
       </c>
       <c r="AB19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89333333333333331</v>
       </c>
       <c r="AD19" s="7">
@@ -1391,26 +1481,24 @@
       <c r="AH19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL19" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO19" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL20" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO20" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM19" s="7">
+        <v>9</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AO19" s="7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>3</v>
       </c>
@@ -1433,7 +1521,7 @@
         <v>11.3</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.415929203539823</v>
       </c>
       <c r="P21" s="7">
@@ -1458,7 +1546,7 @@
         <v>7.5</v>
       </c>
       <c r="Y21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.1333333333333337</v>
       </c>
       <c r="AC21" s="7">
@@ -1470,16 +1558,33 @@
       <c r="AF21" s="8">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AL21" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO21" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AH21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AL21" s="7">
+        <f t="shared" si="6"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1490,7 +1595,7 @@
         <v>3.8</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4736842105263159</v>
       </c>
       <c r="Q22" s="7">
@@ -1506,7 +1611,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AB22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7727272727272716</v>
       </c>
       <c r="AD22" s="7">
@@ -1515,16 +1620,24 @@
       <c r="AG22" s="7">
         <v>1</v>
       </c>
-      <c r="AL22" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO22" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM22" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AO22" s="7">
+        <f t="shared" si="7"/>
+        <v>3.2068965517241383</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1648,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0408163265306123</v>
       </c>
       <c r="Q23" s="7">
@@ -1551,7 +1664,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AB23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8674698795180722</v>
       </c>
       <c r="AD23" s="7">
@@ -1560,26 +1673,24 @@
       <c r="AG23" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AL23" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO23" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL24" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO24" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM23" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AO23" s="7">
+        <f t="shared" si="7"/>
+        <v>2.021276595744681</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>4</v>
       </c>
@@ -1602,7 +1713,7 @@
         <v>11.5</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7478260869565219</v>
       </c>
       <c r="P25" s="7">
@@ -1627,7 +1738,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Y25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5434782608695654</v>
       </c>
       <c r="AE25" s="7">
@@ -1636,16 +1747,33 @@
       <c r="AF25" s="8">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AL25" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO25" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AH25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>29.5</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AL25" s="7">
+        <f t="shared" si="6"/>
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AR25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1784,7 @@
         <v>6.5</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.676923076923077</v>
       </c>
       <c r="Q26" s="7">
@@ -1672,7 +1800,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AB26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.304347826086957</v>
       </c>
       <c r="AC26" s="7">
@@ -1684,16 +1812,24 @@
       <c r="AG26" s="7">
         <v>0</v>
       </c>
-      <c r="AL26" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM26" s="7">
+        <v>16</v>
+      </c>
+      <c r="AN26" s="7">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="7">
+        <f t="shared" si="7"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AQ26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1840,7 @@
         <v>3.5</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5142857142857142</v>
       </c>
       <c r="Q27" s="7">
@@ -1720,7 +1856,7 @@
         <v>2.5</v>
       </c>
       <c r="AB27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.52</v>
       </c>
       <c r="AD27" s="7">
@@ -1729,16 +1865,24 @@
       <c r="AG27" s="7">
         <v>1</v>
       </c>
-      <c r="AL27" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO27" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM27" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AN27" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AO27" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AQ27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1749,7 +1893,7 @@
         <v>5.9</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1864406779661016</v>
       </c>
       <c r="Q28" s="7">
@@ -1765,7 +1909,7 @@
         <v>3.5</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7428571428571429</v>
       </c>
       <c r="AD28" s="7">
@@ -1774,16 +1918,24 @@
       <c r="AG28" s="7">
         <v>0.1</v>
       </c>
-      <c r="AL28" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO28" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM28" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="AN28" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AO28" s="7">
+        <f t="shared" si="7"/>
+        <v>4.2647058823529411</v>
+      </c>
+      <c r="AQ28" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT28" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +1946,7 @@
         <v>5.4</v>
       </c>
       <c r="O29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7962962962962961</v>
       </c>
       <c r="Q29" s="7">
@@ -1810,7 +1962,7 @@
         <v>4.5</v>
       </c>
       <c r="AB29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="AD29" s="7">
@@ -1819,26 +1971,24 @@
       <c r="AG29" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AL29" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO29" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL30" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO30" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AM29" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="AN29" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AO29" s="7">
+        <f t="shared" si="7"/>
+        <v>1.7741935483870968</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>5</v>
       </c>
@@ -1861,7 +2011,7 @@
         <v>7.3</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5068493150684932</v>
       </c>
       <c r="P31" s="7">
@@ -1886,7 +2036,7 @@
         <v>4.3</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.2093023255813957</v>
       </c>
       <c r="AC31" s="7">
@@ -1898,16 +2048,33 @@
       <c r="AF31" s="8">
         <v>0.13333333333333333</v>
       </c>
-      <c r="AL31" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO31" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AH31" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="AK31" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AL31" s="7">
+        <f t="shared" si="6"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="AP31" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AS31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="Q32" s="7">
@@ -1934,7 +2101,7 @@
         <v>4.3</v>
       </c>
       <c r="AB32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3488372093023262</v>
       </c>
       <c r="AD32" s="7">
@@ -1943,13 +2110,21 @@
       <c r="AG32" s="7">
         <v>0</v>
       </c>
-      <c r="AL32" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO32" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM32" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="AN32" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO32" s="7">
+        <f t="shared" si="7"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AQ32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.35">
@@ -1963,7 +2138,7 @@
         <v>6.9</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.681159420289855</v>
       </c>
       <c r="Q33" s="7">
@@ -1979,7 +2154,7 @@
         <v>6.8</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.411764705882353</v>
       </c>
       <c r="AD33" s="7">
@@ -1988,13 +2163,21 @@
       <c r="AG33" s="7">
         <v>0.5</v>
       </c>
-      <c r="AL33" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO33" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM33" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="AN33" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AO33" s="7">
+        <f t="shared" si="7"/>
+        <v>1.3829787234042552</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.35">
@@ -2008,7 +2191,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3913043478260878</v>
       </c>
       <c r="Q34" s="7">
@@ -2024,7 +2207,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.304347826086959</v>
       </c>
       <c r="AD34" s="7">
@@ -2033,13 +2216,21 @@
       <c r="AG34" s="7">
         <v>1</v>
       </c>
-      <c r="AL34" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO34" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM34" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AN34" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AO34" s="7">
+        <f t="shared" si="7"/>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="AQ34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.35">
@@ -2053,7 +2244,7 @@
         <v>4.5</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q35" s="7">
@@ -2069,7 +2260,7 @@
         <v>3.3</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8484848484848486</v>
       </c>
       <c r="AD35" s="7">
@@ -2078,13 +2269,21 @@
       <c r="AG35" s="7">
         <v>0.3</v>
       </c>
-      <c r="AL35" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO35" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM35" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="AN35" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AO35" s="7">
+        <f t="shared" si="7"/>
+        <v>5.7407407407407405</v>
+      </c>
+      <c r="AQ35" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT35" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.35">
@@ -2098,7 +2297,7 @@
         <v>3.6</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="Q36" s="7">
@@ -2114,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AD36" s="7">
@@ -2123,13 +2322,21 @@
       <c r="AG36" s="7">
         <v>0.4</v>
       </c>
-      <c r="AL36" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO36" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM36" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AN36" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO36" s="7">
+        <f t="shared" si="7"/>
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="AQ36" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT36" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.35">
@@ -2143,7 +2350,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5365853658536586</v>
       </c>
       <c r="Q37" s="7">
@@ -2159,7 +2366,7 @@
         <v>6.2</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.435483870967742</v>
       </c>
       <c r="AD37" s="7">
@@ -2168,22 +2375,26 @@
       <c r="AG37" s="7">
         <v>0</v>
       </c>
-      <c r="AL37" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO37" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AM37" s="7">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO37" s="7">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AQ37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="7">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="AL38" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AO38" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2210,7 +2421,7 @@
         <v>10.6</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6226415094339623</v>
       </c>
       <c r="P39" s="7">
@@ -2235,7 +2446,7 @@
         <v>5.5</v>
       </c>
       <c r="Y39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.963636363636363</v>
       </c>
       <c r="AC39" s="7">
@@ -2260,11 +2471,11 @@
         <v>4.8</v>
       </c>
       <c r="AL39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
       <c r="AO39" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP39" s="7">
@@ -2288,7 +2499,7 @@
         <v>11</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2909090909090908</v>
       </c>
       <c r="Q40" s="7">
@@ -2304,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="AD40" s="7">
@@ -2320,7 +2531,7 @@
         <v>7.8</v>
       </c>
       <c r="AO40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4358974358974359</v>
       </c>
       <c r="AQ40" s="7">
@@ -2341,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
       <c r="Q41" s="7">
@@ -2357,7 +2568,7 @@
         <v>5.7</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="AD41" s="7">
@@ -2373,7 +2584,7 @@
         <v>4.5</v>
       </c>
       <c r="AO41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AQ41" s="7">
@@ -2394,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3133333333333332</v>
       </c>
       <c r="Q42" s="7">
@@ -2410,7 +2621,7 @@
         <v>21.5</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97674418604651159</v>
       </c>
       <c r="AD42" s="7">
@@ -2426,7 +2637,7 @@
         <v>6.5</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.1230769230769235</v>
       </c>
       <c r="AQ42" s="7">
@@ -2447,7 +2658,7 @@
         <v>6.5</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4461538461538461</v>
       </c>
       <c r="Q43" s="7">
@@ -2463,7 +2674,7 @@
         <v>10.5</v>
       </c>
       <c r="AB43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="AD43" s="7">
@@ -2479,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="AO43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
       <c r="AQ43" s="7">
@@ -2512,7 +2723,7 @@
         <v>6.5</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6615384615384616</v>
       </c>
       <c r="P45" s="7">
@@ -2537,7 +2748,7 @@
         <v>3.6</v>
       </c>
       <c r="Y45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.083333333333333</v>
       </c>
       <c r="AC45" s="7">
@@ -2562,7 +2773,7 @@
         <v>3.3</v>
       </c>
       <c r="AL45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.2727272727272734</v>
       </c>
       <c r="AP45" s="7">
@@ -2586,7 +2797,7 @@
         <v>6.5</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3846153846153846</v>
       </c>
       <c r="Q46" s="7">
@@ -2602,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="AB46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1444444444444446</v>
       </c>
       <c r="AD46" s="7">
@@ -2618,7 +2829,7 @@
         <v>5.3</v>
       </c>
       <c r="AO46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4716981132075473</v>
       </c>
       <c r="AQ46" s="7">
@@ -2639,7 +2850,7 @@
         <v>4.2</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6190476190476191</v>
       </c>
       <c r="Q47" s="7">
@@ -2655,7 +2866,7 @@
         <v>3.8</v>
       </c>
       <c r="AB47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2894736842105274</v>
       </c>
       <c r="AD47" s="7">
@@ -2671,7 +2882,7 @@
         <v>3.2</v>
       </c>
       <c r="AO47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.6874999999999996</v>
       </c>
       <c r="AQ47" s="7">
@@ -2692,7 +2903,7 @@
         <v>3.4</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3529411764705883</v>
       </c>
       <c r="Q48" s="7">
@@ -2708,7 +2919,7 @@
         <v>14.4</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="AD48" s="7">
@@ -2724,7 +2935,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AO48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4782608695652177</v>
       </c>
       <c r="AQ48" s="7">
@@ -2732,12 +2943,6 @@
       </c>
       <c r="AT48" s="7">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="AO49" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.35">
@@ -2763,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="P50" s="7">
@@ -2788,7 +2993,7 @@
         <v>3.7</v>
       </c>
       <c r="Y50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.4324324324324325</v>
       </c>
       <c r="AC50" s="7">
@@ -2813,12 +3018,8 @@
         <v>3.8</v>
       </c>
       <c r="AL50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.6052631578947372</v>
-      </c>
-      <c r="AO50" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="AP50" s="7">
         <v>0.66666666666666663</v>
@@ -2841,7 +3042,7 @@
         <v>5.9</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.203389830508474</v>
       </c>
       <c r="Q51" s="7">
@@ -2857,7 +3058,7 @@
         <v>3.8</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9736842105263159</v>
       </c>
       <c r="AD51" s="7">
@@ -2873,7 +3074,7 @@
         <v>3.6</v>
       </c>
       <c r="AO51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.3888888888888884</v>
       </c>
       <c r="AQ51" s="7">
@@ -2894,7 +3095,7 @@
         <v>5.3</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7547169811320753</v>
       </c>
       <c r="Q52" s="7">
@@ -2910,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
       <c r="AD52" s="7">
@@ -2926,7 +3127,7 @@
         <v>3.1</v>
       </c>
       <c r="AO52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.096774193548387</v>
       </c>
       <c r="AQ52" s="7">
@@ -2959,7 +3160,7 @@
         <v>5.7</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4035087719298245</v>
       </c>
       <c r="P54" s="7">
@@ -2984,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="Y54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AC54" s="7">
@@ -3009,7 +3210,7 @@
         <v>3.6</v>
       </c>
       <c r="AL54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.833333333333333</v>
       </c>
       <c r="AP54" s="7">
@@ -3033,7 +3234,7 @@
         <v>7.7</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2597402597402596</v>
       </c>
       <c r="Q55" s="7">
@@ -3049,7 +3250,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0918367346938773</v>
       </c>
       <c r="AD55" s="7">
@@ -3065,7 +3266,7 @@
         <v>6.5</v>
       </c>
       <c r="AO55" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6615384615384616</v>
       </c>
       <c r="AQ55" s="7">
@@ -3086,7 +3287,7 @@
         <v>1.9</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4736842105263159</v>
       </c>
       <c r="Q56" s="7">
@@ -3102,7 +3303,7 @@
         <v>2.5</v>
       </c>
       <c r="AB56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.84</v>
       </c>
       <c r="AD56" s="7">
@@ -3118,7 +3319,7 @@
         <v>1.5</v>
       </c>
       <c r="AO56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.1333333333333333</v>
       </c>
       <c r="AQ56" s="7">
@@ -3155,7 +3356,7 @@
         <v>14.3</v>
       </c>
       <c r="AB57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1188811188811187</v>
       </c>
       <c r="AD57" s="7">
@@ -3171,7 +3372,7 @@
         <v>4.3</v>
       </c>
       <c r="AO57" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.2558139534883725</v>
       </c>
       <c r="AQ57" s="7">
@@ -3208,7 +3409,7 @@
         <v>7.4</v>
       </c>
       <c r="AB58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="AD58" s="7">
@@ -3224,7 +3425,7 @@
         <v>3.2</v>
       </c>
       <c r="AO58" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.71875</v>
       </c>
       <c r="AQ58" s="7">
@@ -3257,7 +3458,7 @@
         <v>10.1</v>
       </c>
       <c r="AB59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2475247524752475</v>
       </c>
       <c r="AD59" s="7">
@@ -3273,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="AO59" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
       <c r="AQ59" s="7">
@@ -3306,7 +3507,7 @@
         <v>6.1</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5081967213114753</v>
       </c>
       <c r="P61" s="7">
@@ -3331,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="Y61" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.625</v>
       </c>
       <c r="AC61" s="7">
@@ -3356,7 +3557,7 @@
         <v>3.8</v>
       </c>
       <c r="AL61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.2631578947368425</v>
       </c>
       <c r="AP61" s="7">
@@ -3380,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="Q62" s="7">
@@ -3396,7 +3597,7 @@
         <v>10.8</v>
       </c>
       <c r="AB62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111109</v>
       </c>
       <c r="AD62" s="7">
@@ -3412,7 +3613,7 @@
         <v>6.8</v>
       </c>
       <c r="AO62" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6911764705882353</v>
       </c>
       <c r="AQ62" s="7">
@@ -3433,7 +3634,7 @@
         <v>3.5</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3714285714285714</v>
       </c>
       <c r="Q63" s="7">
@@ -3449,7 +3650,7 @@
         <v>15.7</v>
       </c>
       <c r="AB63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1146496815286624</v>
       </c>
       <c r="AD63" s="7">
@@ -3465,7 +3666,7 @@
         <v>5.7</v>
       </c>
       <c r="AO63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.3859649122807016</v>
       </c>
       <c r="AQ63" s="7">
@@ -3486,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.425</v>
       </c>
       <c r="Q64" s="7">
@@ -3502,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="AB64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98750000000000004</v>
       </c>
       <c r="AD64" s="7">
@@ -3518,7 +3719,7 @@
         <v>3.5</v>
       </c>
       <c r="AO64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="AQ64" s="7">
@@ -3539,7 +3740,7 @@
         <v>3.5</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="Q65" s="7">
@@ -3567,7 +3768,7 @@
         <v>5.4</v>
       </c>
       <c r="AO65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3518518518518516</v>
       </c>
       <c r="AQ65" s="7">
@@ -3600,7 +3801,7 @@
         <v>7.5</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3599999999999999</v>
       </c>
       <c r="P67" s="7">
@@ -3625,7 +3826,7 @@
         <v>4.5</v>
       </c>
       <c r="Y67" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.666666666666667</v>
       </c>
       <c r="AC67" s="7">
@@ -3650,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="AL67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.375</v>
       </c>
       <c r="AP67" s="7">
@@ -3674,7 +3875,7 @@
         <v>6.9</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9275362318840579</v>
       </c>
       <c r="Q68" s="7">
@@ -3690,7 +3891,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AB68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.173913043478261</v>
       </c>
       <c r="AD68" s="7">
@@ -3706,7 +3907,7 @@
         <v>5.8</v>
       </c>
       <c r="AO68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6896551724137934</v>
       </c>
       <c r="AQ68" s="7">
@@ -3727,7 +3928,7 @@
         <v>2.4</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5000000000000009</v>
       </c>
       <c r="Q69" s="7">
@@ -3743,7 +3944,7 @@
         <v>2.7</v>
       </c>
       <c r="AB69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7037037037037024</v>
       </c>
       <c r="AD69" s="7">
@@ -3759,7 +3960,7 @@
         <v>1.8</v>
       </c>
       <c r="AO69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0555555555555554</v>
       </c>
       <c r="AQ69" s="7">
@@ -3780,7 +3981,7 @@
         <v>4</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
       <c r="Q70" s="7">
@@ -3796,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="AB70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99285714285714288</v>
       </c>
       <c r="AD70" s="7">
@@ -3812,7 +4013,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AO70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.7254901960784315</v>
       </c>
       <c r="AQ70" s="7">
@@ -3833,7 +4034,7 @@
         <v>4.3</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3488372093023258</v>
       </c>
       <c r="Q71" s="7">
@@ -3849,7 +4050,7 @@
         <v>7</v>
       </c>
       <c r="AB71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="AD71" s="7">
@@ -3865,7 +4066,7 @@
         <v>3.1</v>
       </c>
       <c r="AO71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.258064516129032</v>
       </c>
       <c r="AQ71" s="7">
@@ -3887,31 +4088,109 @@
       <c r="C73" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="D73" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="E73" s="7">
+        <v>14</v>
+      </c>
+      <c r="F73" s="7">
+        <f>D73/E73</f>
+        <v>1.8214285714285714</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C74" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="D74" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="E74" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" ref="F74:F78" si="8">D74/E74</f>
+        <v>1.8955223880597014</v>
+      </c>
+      <c r="G74" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C75" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="D75" s="7">
+        <v>19</v>
+      </c>
+      <c r="E75" s="7">
+        <v>9</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="8"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C76" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="D76" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="E76" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="8"/>
+        <v>2.008695652173913</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C77" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="D77" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="E77" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0654205607476639</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C78" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="D78" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="E78" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="8"/>
+        <v>2.5339805825242716</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
@@ -3936,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5916666666666668</v>
       </c>
       <c r="P80" s="7">
@@ -3961,7 +4240,7 @@
         <v>7.3</v>
       </c>
       <c r="Y80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.2465753424657535</v>
       </c>
       <c r="AC80" s="7">
@@ -3986,7 +4265,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AL80" s="7">
-        <f t="shared" ref="AL80:AL143" si="7">AJ80/AK80</f>
+        <f t="shared" ref="AL80:AL143" si="9">AJ80/AK80</f>
         <v>3.2653061224489792</v>
       </c>
       <c r="AP80" s="7">
@@ -4010,7 +4289,7 @@
         <v>7.7</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" ref="O81:O144" si="8">M81/N81</f>
+        <f t="shared" ref="O81:O144" si="10">M81/N81</f>
         <v>1.6233766233766234</v>
       </c>
       <c r="Q81" s="7">
@@ -4026,7 +4305,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AB81" s="7">
-        <f t="shared" ref="AB81:AB144" si="9">Z81/AA81</f>
+        <f t="shared" ref="AB81:AB144" si="11">Z81/AA81</f>
         <v>3.5869565217391308</v>
       </c>
       <c r="AD81" s="7">
@@ -4063,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.4</v>
       </c>
       <c r="Q82" s="7">
@@ -4079,7 +4358,7 @@
         <v>1.8</v>
       </c>
       <c r="AB82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AD82" s="7">
@@ -4128,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" ref="L84:L147" si="10">J84/K84</f>
+        <f t="shared" ref="L84:L147" si="12">J84/K84</f>
         <v>1.3499999999999999</v>
       </c>
       <c r="P84" s="7">
@@ -4153,7 +4432,7 @@
         <v>7.8</v>
       </c>
       <c r="Y84" s="7">
-        <f t="shared" ref="Y84:Y147" si="11">W84/X84</f>
+        <f t="shared" ref="Y84:Y147" si="13">W84/X84</f>
         <v>3.6538461538461537</v>
       </c>
       <c r="AC84" s="7">
@@ -4178,7 +4457,7 @@
         <v>10.5</v>
       </c>
       <c r="AL84" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5809523809523811</v>
       </c>
       <c r="AP84" s="7">
@@ -4202,7 +4481,7 @@
         <v>4.7</v>
       </c>
       <c r="O85" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.957446808510638</v>
       </c>
       <c r="Q85" s="7">
@@ -4218,7 +4497,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.956521739130435</v>
       </c>
       <c r="AD85" s="7">
@@ -4234,7 +4513,7 @@
         <v>4.3</v>
       </c>
       <c r="AO85" s="7">
-        <f t="shared" ref="AO85:AO148" si="12">AM85/AN85</f>
+        <f t="shared" ref="AO85:AO148" si="14">AM85/AN85</f>
         <v>6.4883720930232558</v>
       </c>
       <c r="AQ85" s="7">
@@ -4267,7 +4546,7 @@
         <v>12.5</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.304</v>
       </c>
       <c r="P87" s="7">
@@ -4292,7 +4571,7 @@
         <v>7.6</v>
       </c>
       <c r="Y87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.7105263157894739</v>
       </c>
       <c r="AC87" s="7">
@@ -4311,7 +4590,7 @@
         <v>8.4</v>
       </c>
       <c r="AL87" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="AP87" s="7">
@@ -4335,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="O88" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.96</v>
       </c>
       <c r="Q88" s="7">
@@ -4351,7 +4630,7 @@
         <v>6.1</v>
       </c>
       <c r="AB88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9508196721311482</v>
       </c>
       <c r="AD88" s="7">
@@ -4370,7 +4649,7 @@
         <v>4.5</v>
       </c>
       <c r="AO88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AQ88" s="7">
@@ -4391,7 +4670,7 @@
         <v>4.8</v>
       </c>
       <c r="O89" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="Q89" s="7">
@@ -4407,7 +4686,7 @@
         <v>2.4</v>
       </c>
       <c r="AB89" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.291666666666668</v>
       </c>
       <c r="AD89" s="7">
@@ -4423,7 +4702,7 @@
         <v>3.5</v>
       </c>
       <c r="AO89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AQ89" s="7">
@@ -4461,7 +4740,7 @@
         <v>15</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4666666666666666</v>
       </c>
       <c r="P91" s="7">
@@ -4486,7 +4765,7 @@
         <v>8.6</v>
       </c>
       <c r="Y91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.0930232558139537</v>
       </c>
       <c r="AC91" s="7">
@@ -4511,7 +4790,7 @@
         <v>11.6</v>
       </c>
       <c r="AL91" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8017241379310347</v>
       </c>
       <c r="AP91" s="7">
@@ -4535,7 +4814,7 @@
         <v>7.1</v>
       </c>
       <c r="O92" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6901408450704227</v>
       </c>
       <c r="Q92" s="7">
@@ -4551,7 +4830,7 @@
         <v>8.6</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.0930232558139537</v>
       </c>
       <c r="AD92" s="7">
@@ -4567,7 +4846,7 @@
         <v>5</v>
       </c>
       <c r="AO92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.7199999999999998</v>
       </c>
       <c r="AQ92" s="7">
@@ -4600,7 +4879,7 @@
         <v>11.5</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6086956521739131</v>
       </c>
       <c r="P94" s="7">
@@ -4625,7 +4904,7 @@
         <v>6.7</v>
       </c>
       <c r="Y94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.955223880597015</v>
       </c>
       <c r="AC94" s="7">
@@ -4650,7 +4929,7 @@
         <v>6.3</v>
       </c>
       <c r="AL94" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="AP94" s="7">
@@ -4674,7 +4953,7 @@
         <v>4.5</v>
       </c>
       <c r="O95" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="Q95" s="7">
@@ -4683,10 +4962,6 @@
       <c r="T95" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y95" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z95" s="7">
         <v>28.4</v>
       </c>
@@ -4694,7 +4969,7 @@
         <v>4.5</v>
       </c>
       <c r="AB95" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.3111111111111109</v>
       </c>
       <c r="AD95" s="7">
@@ -4710,7 +4985,7 @@
         <v>2.5</v>
       </c>
       <c r="AO95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="AQ95" s="7">
@@ -4731,7 +5006,7 @@
         <v>6.5</v>
       </c>
       <c r="O96" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="Q96" s="7">
@@ -4740,10 +5015,6 @@
       <c r="T96" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Y96" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z96" s="7">
         <v>21</v>
       </c>
@@ -4751,7 +5022,7 @@
         <v>4.3</v>
       </c>
       <c r="AB96" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.8837209302325579</v>
       </c>
       <c r="AD96" s="7">
@@ -4767,7 +5038,7 @@
         <v>2.4</v>
       </c>
       <c r="AO96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.916666666666667</v>
       </c>
       <c r="AQ96" s="7">
@@ -4788,7 +5059,7 @@
         <v>3.4</v>
       </c>
       <c r="O97" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0588235294117649</v>
       </c>
       <c r="Q97" s="7">
@@ -4796,10 +5067,6 @@
       </c>
       <c r="T97" s="7">
         <v>1</v>
-      </c>
-      <c r="Y97" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z97" s="7">
         <v>17</v>
@@ -4808,7 +5075,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AB97" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AD97" s="7">
@@ -4824,7 +5091,7 @@
         <v>4.5</v>
       </c>
       <c r="AO97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.5777777777777779</v>
       </c>
       <c r="AQ97" s="7">
@@ -4845,7 +5112,7 @@
         <v>3.2</v>
       </c>
       <c r="O98" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7187499999999996</v>
       </c>
       <c r="Q98" s="7">
@@ -4853,10 +5120,6 @@
       </c>
       <c r="T98" s="7">
         <v>1</v>
-      </c>
-      <c r="Y98" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z98" s="7">
         <v>19</v>
@@ -4865,7 +5128,7 @@
         <v>1.5</v>
       </c>
       <c r="AB98" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.666666666666666</v>
       </c>
       <c r="AD98" s="7">
@@ -4881,7 +5144,7 @@
         <v>2.6</v>
       </c>
       <c r="AO98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7692307692307692</v>
       </c>
       <c r="AQ98" s="7">
@@ -4889,20 +5152,6 @@
       </c>
       <c r="AT98" s="7">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="O99" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y99" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO99" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.35">
@@ -4928,20 +5177,8 @@
         <v>13</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1923076923076923</v>
-      </c>
-      <c r="O100" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y100" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO100" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.35">
@@ -4955,16 +5192,8 @@
         <v>5.8</v>
       </c>
       <c r="O101" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.1551724137931036</v>
-      </c>
-      <c r="Y101" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO101" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.35">
@@ -4978,16 +5207,8 @@
         <v>3.5</v>
       </c>
       <c r="O102" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2857142857142856</v>
-      </c>
-      <c r="Y102" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO102" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.35">
@@ -5001,30 +5222,8 @@
         <v>3.5</v>
       </c>
       <c r="O103" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2857142857142856</v>
-      </c>
-      <c r="Y103" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO103" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="O104" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y104" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO104" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.35">
@@ -5050,12 +5249,8 @@
         <v>14</v>
       </c>
       <c r="L105" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3071428571428572</v>
-      </c>
-      <c r="O105" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="P105" s="7">
         <v>1</v>
@@ -5079,7 +5274,7 @@
         <v>9</v>
       </c>
       <c r="Y105" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.2</v>
       </c>
       <c r="AC105" s="7">
@@ -5104,12 +5299,8 @@
         <v>9</v>
       </c>
       <c r="AL105" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1555555555555554</v>
-      </c>
-      <c r="AO105" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="AP105" s="7">
         <v>1</v>
@@ -5125,10 +5316,6 @@
       <c r="C106" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L106" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M106" s="7">
         <v>9.9</v>
       </c>
@@ -5136,7 +5323,7 @@
         <v>5.4</v>
       </c>
       <c r="O106" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="Q106" s="7">
@@ -5152,7 +5339,7 @@
         <v>2.8</v>
       </c>
       <c r="AB106" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AD106" s="7">
@@ -5168,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="AO106" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AQ106" s="7">
@@ -5176,12 +5363,6 @@
       </c>
       <c r="AT106" s="7">
         <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L107" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.35">
@@ -5207,7 +5388,7 @@
         <v>11.2</v>
       </c>
       <c r="L108" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
       <c r="P108" s="7">
@@ -5232,7 +5413,7 @@
         <v>7.2</v>
       </c>
       <c r="Y108" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AC108" s="7">
@@ -5257,7 +5438,7 @@
         <v>7.8</v>
       </c>
       <c r="AL108" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5897435897435899</v>
       </c>
       <c r="AP108" s="7">
@@ -5281,7 +5462,7 @@
         <v>4.5</v>
       </c>
       <c r="O109" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="Q109" s="7">
@@ -5297,7 +5478,7 @@
         <v>4.3</v>
       </c>
       <c r="AB109" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.6976744186046515</v>
       </c>
       <c r="AD109" s="7">
@@ -5313,7 +5494,7 @@
         <v>6</v>
       </c>
       <c r="AO109" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AQ109" s="7">
@@ -5334,7 +5515,7 @@
         <v>4.3</v>
       </c>
       <c r="O110" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.7209302325581395</v>
       </c>
       <c r="Q110" s="7">
@@ -5350,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="AB110" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AD110" s="7">
@@ -5366,7 +5547,7 @@
         <v>3.5</v>
       </c>
       <c r="AO110" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8571428571428568</v>
       </c>
       <c r="AQ110" s="7">
@@ -5387,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="O111" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="Q111" s="7">
@@ -5403,7 +5584,7 @@
         <v>2.5</v>
       </c>
       <c r="AB111" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.08</v>
       </c>
       <c r="AD111" s="7">
@@ -5419,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="AO111" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.5</v>
       </c>
       <c r="AQ111" s="7">
@@ -5452,7 +5633,7 @@
         <v>12.8</v>
       </c>
       <c r="L113" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.328125</v>
       </c>
       <c r="P113" s="7">
@@ -5477,7 +5658,7 @@
         <v>6.7</v>
       </c>
       <c r="Y113" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5373134328358207</v>
       </c>
       <c r="AC113" s="7">
@@ -5502,7 +5683,7 @@
         <v>6.3</v>
       </c>
       <c r="AL113" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="AP113" s="7">
@@ -5519,10 +5700,6 @@
       <c r="C114" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L114" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M114" s="7">
         <v>8.1999999999999993</v>
       </c>
@@ -5530,7 +5707,7 @@
         <v>5.7</v>
       </c>
       <c r="O114" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.43859649122807</v>
       </c>
       <c r="Q114" s="7">
@@ -5538,10 +5715,6 @@
       </c>
       <c r="T114" s="7">
         <v>1</v>
-      </c>
-      <c r="Y114" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z114" s="7">
         <v>39.700000000000003</v>
@@ -5550,7 +5723,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AB114" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.0227272727272734</v>
       </c>
       <c r="AD114" s="7">
@@ -5559,10 +5732,6 @@
       <c r="AG114" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AL114" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM114" s="7">
         <v>8.6</v>
       </c>
@@ -5570,7 +5739,7 @@
         <v>3.5</v>
       </c>
       <c r="AO114" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4571428571428569</v>
       </c>
       <c r="AQ114" s="7">
@@ -5584,10 +5753,6 @@
       <c r="C115" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L115" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M115" s="7">
         <v>14</v>
       </c>
@@ -5595,7 +5760,7 @@
         <v>7.5</v>
       </c>
       <c r="O115" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="Q115" s="7">
@@ -5604,10 +5769,6 @@
       <c r="T115" s="7">
         <v>0.4</v>
       </c>
-      <c r="Y115" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z115" s="7">
         <v>17.399999999999999</v>
       </c>
@@ -5615,7 +5776,7 @@
         <v>4.5</v>
       </c>
       <c r="AB115" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8666666666666663</v>
       </c>
       <c r="AD115" s="7">
@@ -5624,10 +5785,6 @@
       <c r="AG115" s="7">
         <v>0.4</v>
       </c>
-      <c r="AL115" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM115" s="7">
         <v>17.100000000000001</v>
       </c>
@@ -5635,7 +5792,7 @@
         <v>3.5</v>
       </c>
       <c r="AO115" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.8857142857142861</v>
       </c>
       <c r="AQ115" s="7">
@@ -5649,10 +5806,6 @@
       <c r="C116" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L116" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M116" s="7">
         <v>14.2</v>
       </c>
@@ -5660,7 +5813,7 @@
         <v>3.8</v>
       </c>
       <c r="O116" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.736842105263158</v>
       </c>
       <c r="Q116" s="7">
@@ -5669,10 +5822,6 @@
       <c r="T116" s="7">
         <v>1</v>
       </c>
-      <c r="Y116" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z116" s="7">
         <v>17.3</v>
       </c>
@@ -5680,7 +5829,7 @@
         <v>5.7</v>
       </c>
       <c r="AB116" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.0350877192982457</v>
       </c>
       <c r="AD116" s="7">
@@ -5689,10 +5838,6 @@
       <c r="AG116" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="AL116" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM116" s="7">
         <v>18.600000000000001</v>
       </c>
@@ -5700,7 +5845,7 @@
         <v>4.3</v>
       </c>
       <c r="AO116" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.3255813953488378</v>
       </c>
       <c r="AQ116" s="7">
@@ -5714,10 +5859,6 @@
       <c r="C117" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L117" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M117" s="7">
         <v>14.7</v>
       </c>
@@ -5725,7 +5866,7 @@
         <v>3.5</v>
       </c>
       <c r="O117" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2</v>
       </c>
       <c r="Q117" s="7">
@@ -5734,10 +5875,6 @@
       <c r="T117" s="7">
         <v>1</v>
       </c>
-      <c r="Y117" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z117" s="7">
         <v>22.8</v>
       </c>
@@ -5745,7 +5882,7 @@
         <v>1.5</v>
       </c>
       <c r="AB117" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.200000000000001</v>
       </c>
       <c r="AD117" s="7">
@@ -5754,10 +5891,6 @@
       <c r="AG117" s="7">
         <v>1</v>
       </c>
-      <c r="AL117" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM117" s="7">
         <v>6.7</v>
       </c>
@@ -5765,7 +5898,7 @@
         <v>2.5</v>
       </c>
       <c r="AO117" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.68</v>
       </c>
       <c r="AQ117" s="7">
@@ -5779,10 +5912,6 @@
       <c r="C118" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L118" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M118" s="7">
         <v>25.8</v>
       </c>
@@ -5790,7 +5919,7 @@
         <v>3.4</v>
       </c>
       <c r="O118" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.5882352941176476</v>
       </c>
       <c r="Q118" s="7">
@@ -5799,10 +5928,6 @@
       <c r="T118" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Y118" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Z118" s="7">
         <v>5.7</v>
       </c>
@@ -5810,7 +5935,7 @@
         <v>1.9</v>
       </c>
       <c r="AB118" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.0000000000000004</v>
       </c>
       <c r="AD118" s="7">
@@ -5819,10 +5944,6 @@
       <c r="AG118" s="7">
         <v>0</v>
       </c>
-      <c r="AL118" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM118" s="7">
         <v>9.8000000000000007</v>
       </c>
@@ -5830,7 +5951,7 @@
         <v>0.7</v>
       </c>
       <c r="AO118" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14.000000000000002</v>
       </c>
       <c r="AQ118" s="7">
@@ -5840,2052 +5961,304 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L119" s="7" t="e">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A120" s="7">
+        <v>20</v>
+      </c>
+      <c r="B120" s="8">
+        <v>22</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="K120" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="L120" s="7">
+        <f t="shared" si="12"/>
+        <v>1.6956521739130435</v>
+      </c>
+      <c r="P120" s="7">
+        <v>1</v>
+      </c>
+      <c r="R120" s="7">
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="S120" s="7">
+        <v>1</v>
+      </c>
+      <c r="U120" s="7">
+        <v>6</v>
+      </c>
+      <c r="V120" s="7">
+        <v>4</v>
+      </c>
+      <c r="W120" s="7">
+        <v>20</v>
+      </c>
+      <c r="X120" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="Y120" s="7">
+        <f t="shared" si="13"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AC120" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF120" s="8">
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="AH120" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI120" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ120" s="7">
+        <v>31</v>
+      </c>
+      <c r="AK120" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AL120" s="7">
+        <f t="shared" si="9"/>
+        <v>5.2542372881355925</v>
+      </c>
+      <c r="AP120" s="7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AR120" s="7">
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C121" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M121" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="N121" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="O121" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O119" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y119" s="7" t="e">
+        <v>6.6363636363636367</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T121" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z121" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA121" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AB121" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB119" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL119" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO119" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L120" s="7" t="e">
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="AD121" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG121" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AM121" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AN121" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO121" s="7">
+        <f t="shared" si="14"/>
+        <v>3.12</v>
+      </c>
+      <c r="AQ121" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AS121" s="7">
+        <v>0.10909090909090909</v>
+      </c>
+    </row>
+    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C122" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="N122" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O122" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O120" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y120" s="7" t="e">
+        <v>3.2272727272727271</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>1</v>
+      </c>
+      <c r="T122" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA122" s="7">
+        <v>6</v>
+      </c>
+      <c r="AB122" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB120" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL120" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO120" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L121" s="7" t="e">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="AD122" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="AG122" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM122" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="AN122" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AO122" s="7">
+        <f t="shared" si="14"/>
+        <v>5.6382978723404253</v>
+      </c>
+      <c r="AQ122" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AT122" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M123" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="N123" s="7">
+        <v>4</v>
+      </c>
+      <c r="O123" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O121" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y121" s="7" t="e">
+        <v>1.95</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>1</v>
+      </c>
+      <c r="T123" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="AA123" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="AB123" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB121" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL121" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO121" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L122" s="7" t="e">
+        <v>13.578947368421053</v>
+      </c>
+      <c r="AD123" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG123" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM123" s="7">
+        <v>21</v>
+      </c>
+      <c r="AN123" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AO123" s="7">
+        <f t="shared" si="14"/>
+        <v>8.4</v>
+      </c>
+      <c r="AQ123" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AT123" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="C124" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M124" s="7">
+        <v>32</v>
+      </c>
+      <c r="N124" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O124" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O122" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y122" s="7" t="e">
+        <v>7.441860465116279</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T124" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z124" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA124" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB122" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL122" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO122" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L123" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O123" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y123" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB123" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL123" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO123" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L124" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O124" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y124" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB124" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL124" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO124" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AD124" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM124" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AN124" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AO124" s="7">
+        <f t="shared" si="14"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AQ124" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT124" s="7">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L125" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O125" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y125" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB125" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL125" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO125" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L126" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O126" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y126" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB126" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL126" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO126" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L127" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O127" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y127" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB127" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL127" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO127" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="L128" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O128" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y128" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB128" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL128" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO128" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L129" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O129" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y129" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB129" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL129" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO129" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L130" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O130" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y130" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB130" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL130" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO130" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L131" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O131" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y131" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB131" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL131" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO131" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L132" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O132" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y132" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB132" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL132" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO132" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L133" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O133" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y133" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB133" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL133" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO133" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L134" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O134" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y134" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB134" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL134" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO134" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L135" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O135" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y135" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB135" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL135" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO135" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L136" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O136" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y136" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB136" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL136" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO136" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L137" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O137" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y137" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB137" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL137" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO137" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L138" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O138" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y138" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB138" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL138" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO138" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L139" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O139" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y139" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB139" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL139" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO139" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L140" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O140" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y140" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB140" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL140" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO140" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L141" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O141" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y141" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB141" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL141" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO141" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L142" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O142" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y142" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB142" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL142" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO142" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L143" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O143" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y143" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB143" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL143" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO143" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="144" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L144" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O144" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y144" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB144" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL144" s="7" t="e">
-        <f t="shared" ref="AL144:AL199" si="13">AJ144/AK144</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO144" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="145" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L145" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O145" s="7" t="e">
-        <f t="shared" ref="O145:O159" si="14">M145/N145</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y145" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL145" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO145" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="146" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L146" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O146" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y146" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL146" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO146" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="147" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L147" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O147" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y147" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL147" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO147" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="148" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L148" s="7" t="e">
-        <f t="shared" ref="L148:L211" si="15">J148/K148</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O148" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y148" s="7" t="e">
-        <f t="shared" ref="Y148:Y199" si="16">W148/X148</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL148" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO148" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="149" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L149" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O149" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y149" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL149" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO149" s="7" t="e">
-        <f t="shared" ref="AO149:AO212" si="17">AM149/AN149</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L150" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O150" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y150" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL150" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO150" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L151" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O151" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y151" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL151" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO151" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L152" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O152" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y152" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL152" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO152" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L153" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O153" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y153" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL153" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO153" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L154" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O154" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y154" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL154" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO154" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L155" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O155" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y155" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL155" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO155" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="156" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L156" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O156" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y156" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL156" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO156" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="157" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L157" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O157" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y157" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL157" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO157" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="158" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L158" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O158" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y158" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL158" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO158" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="159" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L159" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O159" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y159" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL159" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO159" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="160" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L160" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y160" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL160" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO160" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L161" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y161" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL161" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO161" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="162" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L162" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y162" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL162" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO162" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L163" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y163" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL163" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO163" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="164" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L164" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y164" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL164" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO164" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="165" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L165" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y165" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL165" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO165" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="166" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L166" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y166" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL166" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO166" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="167" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L167" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y167" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL167" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO167" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="168" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L168" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y168" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL168" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO168" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="169" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L169" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y169" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL169" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO169" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="170" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L170" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y170" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL170" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO170" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="171" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L171" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y171" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL171" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO171" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="172" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L172" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y172" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL172" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO172" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="173" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L173" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y173" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL173" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO173" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="174" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L174" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y174" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL174" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO174" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="175" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L175" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y175" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL175" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO175" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="176" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L176" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y176" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL176" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO176" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L177" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y177" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL177" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO177" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L178" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y178" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL178" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO178" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="179" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L179" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y179" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL179" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO179" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="180" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L180" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y180" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL180" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO180" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L181" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y181" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL181" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO181" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="182" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L182" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y182" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL182" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO182" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="183" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L183" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y183" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL183" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO183" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="184" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L184" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y184" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL184" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO184" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="185" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L185" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y185" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL185" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO185" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L186" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y186" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL186" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO186" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="187" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L187" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y187" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL187" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO187" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="188" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L188" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y188" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL188" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO188" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="189" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L189" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y189" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL189" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO189" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="190" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L190" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y190" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL190" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO190" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="191" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L191" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y191" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL191" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO191" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="192" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L192" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y192" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL192" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO192" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="193" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L193" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y193" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL193" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO193" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="194" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L194" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y194" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL194" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO194" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="195" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L195" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y195" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL195" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO195" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L196" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y196" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL196" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO196" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L197" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y197" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL197" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO197" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L198" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y198" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL198" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO198" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L199" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y199" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL199" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO199" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L200" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO200" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="201" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L201" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO201" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L202" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO202" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="203" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L203" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO203" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="204" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L204" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO204" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="205" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L205" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO205" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="206" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L206" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO206" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="207" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L207" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO207" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="208" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L208" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO208" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="209" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L209" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO209" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="210" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L210" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO210" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="211" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L211" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO211" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="212" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L212" s="7" t="e">
-        <f t="shared" ref="L212:L240" si="18">J212/K212</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO212" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="213" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L213" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO213" s="7" t="e">
-        <f t="shared" ref="AO213:AO218" si="19">AM213/AN213</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="214" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L214" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO214" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="215" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L215" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO215" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="216" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L216" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO216" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="217" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L217" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO217" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="218" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L218" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO218" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="219" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L219" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="220" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L220" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="221" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L221" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="222" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L222" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="223" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L223" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="224" spans="12:41" x14ac:dyDescent="0.35">
-      <c r="L224" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L225" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L226" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L227" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L228" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L229" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L230" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L231" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L232" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L233" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L234" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L235" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L236" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L237" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L238" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L239" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L240" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="AT125" s="7">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
